--- a/Config.xlsx
+++ b/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laghi\Documents\03_dottorato\04_F4E\01_JADE\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D42D307-85BD-4F39-A075-5F840EB0B7F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DE2CD5-A758-4AB2-8981-C4437EE8D7F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN Config." sheetId="2" r:id="rId1"/>
@@ -155,7 +155,7 @@
     <t>Activation (NI)</t>
   </si>
   <si>
-    <t>C:\Users\laghi\Documents\MCNP\MCNP_DATA\xsdir</t>
+    <t>C:\Users\laghi\Documents\MCNP\MCNP_DATA\xsdir_mcnp6.2</t>
   </si>
 </sst>
 </file>
@@ -691,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A1A2DE-3EB8-4AD4-9CF1-023800AFF144}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,7 +776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51291A71-4ED6-4F39-B575-920D7DB78E56}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laghi\Documents\03_dottorato\04_F4E\01_JADE\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DE2CD5-A758-4AB2-8981-C4437EE8D7F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07929FB9-802D-4918-8385-1462B732DE80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN Config." sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>xsdir Path</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>C:\Users\laghi\Documents\MCNP\MCNP_DATA\xsdir_mcnp6.2</t>
+  </si>
+  <si>
+    <t>81c</t>
+  </si>
+  <si>
+    <t>ENDF VIII</t>
   </si>
 </sst>
 </file>
@@ -691,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A1A2DE-3EB8-4AD4-9CF1-023800AFF144}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1034,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F03233-EAF0-4262-AA38-EF4B945A3E70}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1088,7 +1094,15 @@
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
         <v>27</v>
       </c>
     </row>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laghi\Documents\03_dottorato\04_F4E\01_JADE\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07929FB9-802D-4918-8385-1462B732DE80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743A34F6-01C2-4CE5-AD10-3957C8A175EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN Config." sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>xsdir Path</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>False</t>
-  </si>
-  <si>
-    <t xml:space="preserve">False </t>
   </si>
   <si>
     <t>OnlyInput</t>
@@ -216,7 +213,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,6 +223,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -379,6 +382,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -698,7 +707,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -709,7 +718,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="15"/>
     </row>
@@ -718,20 +727,20 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>5</v>
@@ -739,7 +748,7 @@
     </row>
     <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="6">
         <v>4</v>
@@ -747,26 +756,26 @@
     </row>
     <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -782,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51291A71-4ED6-4F39-B575-920D7DB78E56}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -801,7 +810,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -827,36 +836,36 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="I3" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>3</v>
@@ -877,7 +886,7 @@
         <v>320</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>5</v>
@@ -971,46 +980,46 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+    <row r="13" spans="1:9" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A13" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="H14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="I14" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1042,7 +1051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F03233-EAF0-4262-AA38-EF4B945A3E70}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1054,56 +1063,56 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>11</v>
-      </c>
       <c r="C1" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laghi\Documents\03_dottorato\04_F4E\01_JADE\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743A34F6-01C2-4CE5-AD10-3957C8A175EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B381436-802F-4C11-BDD3-2C485B99A36C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN Config." sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>xsdir Path</t>
   </si>
@@ -53,9 +53,6 @@
     <t>True</t>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
     <t>OnlyInput</t>
   </si>
   <si>
@@ -159,6 +156,12 @@
   </si>
   <si>
     <t>ENDF VIII</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
@@ -375,19 +378,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -718,7 +721,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="15"/>
     </row>
@@ -727,20 +730,20 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>5</v>
@@ -748,7 +751,7 @@
     </row>
     <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="6">
         <v>4</v>
@@ -756,26 +759,26 @@
     </row>
     <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -792,7 +795,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I17"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -810,7 +813,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -822,59 +825,59 @@
       <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>22</v>
-      </c>
       <c r="I3" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>5</v>
@@ -883,10 +886,10 @@
         <v>1000</v>
       </c>
       <c r="G4" s="11">
-        <v>320</v>
+        <v>30</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>5</v>
@@ -981,45 +984,45 @@
       <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A13" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
+      <c r="A13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="H14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>22</v>
-      </c>
       <c r="I14" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1063,56 +1066,56 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>10</v>
-      </c>
       <c r="C1" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laghi\Documents\03_dottorato\04_F4E\01_JADE\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B381436-802F-4C11-BDD3-2C485B99A36C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDD8699-16EB-47CC-B705-BAB4080EE3E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
+    <workbookView xWindow="34815" yWindow="4665" windowWidth="17280" windowHeight="8970" activeTab="1" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN Config." sheetId="2" r:id="rId1"/>
@@ -795,7 +795,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -883,7 +883,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="12">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="G4" s="11">
         <v>30</v>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laghi\Documents\03_dottorato\04_F4E\01_JADE\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDD8699-16EB-47CC-B705-BAB4080EE3E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FB3FFB-D20D-4F03-BC1A-25C4059D0B6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34815" yWindow="4665" windowWidth="17280" windowHeight="8970" activeTab="1" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN Config." sheetId="2" r:id="rId1"/>
@@ -795,7 +795,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -883,7 +883,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="12">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="G4" s="11">
         <v>30</v>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laghi\Documents\03_dottorato\04_F4E\01_JADE\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FB3FFB-D20D-4F03-BC1A-25C4059D0B6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982F0006-72D0-4045-9B65-6311C51D912E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
+    <workbookView xWindow="4800" yWindow="2472" windowWidth="17280" windowHeight="8976" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN Config." sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>xsdir Path</t>
   </si>
@@ -135,12 +135,6 @@
   </si>
   <si>
     <t>Sphere Leakage Test</t>
-  </si>
-  <si>
-    <t>Utilities output path</t>
-  </si>
-  <si>
-    <t>C:\Users\laghi\Documents\03_dottorato\04_F4E\Utilities</t>
   </si>
   <si>
     <t>F2-0.0005</t>
@@ -707,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A1A2DE-3EB8-4AD4-9CF1-023800AFF144}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -757,27 +751,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
+    <row r="7" spans="1:2" ht="18.600000000000001" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B7" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -794,7 +780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51291A71-4ED6-4F39-B575-920D7DB78E56}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -863,7 +849,7 @@
         <v>21</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -874,10 +860,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>5</v>
@@ -889,7 +875,7 @@
         <v>30</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>5</v>
@@ -1109,10 +1095,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laghi\Documents\03_dottorato\04_F4E\01_JADE\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982F0006-72D0-4045-9B65-6311C51D912E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E459361-DC62-4BB3-8F4B-355697FD4A7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2472" windowWidth="17280" windowHeight="8976" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN Config." sheetId="2" r:id="rId1"/>
@@ -703,7 +703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A1A2DE-3EB8-4AD4-9CF1-023800AFF144}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51291A71-4ED6-4F39-B575-920D7DB78E56}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -860,10 +860,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>5</v>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laghi\Documents\03_dottorato\04_F4E\01_JADE\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E459361-DC62-4BB3-8F4B-355697FD4A7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3C6F54-F9E0-447A-A24B-466B2987676B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN Config." sheetId="2" r:id="rId1"/>
@@ -781,7 +781,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -860,10 +860,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>40</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>5</v>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laghi\Documents\03_dottorato\04_F4E\01_JADE\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3C6F54-F9E0-447A-A24B-466B2987676B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F98FE2-2F22-4BB2-9EE7-2C7BE627C975}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>xsdir Path</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>ITER 1D (by P. Sawan)</t>
+  </si>
+  <si>
+    <t>ITER_1D.i</t>
   </si>
 </sst>
 </file>
@@ -781,7 +787,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -863,10 +869,10 @@
         <v>40</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="F4" s="12">
         <v>10000</v>
@@ -882,13 +888,27 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="A5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="12">
+        <v>10000</v>
+      </c>
+      <c r="G5" s="11">
+        <v>30</v>
+      </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
     </row>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laghi\Documents\03_dottorato\04_F4E\01_JADE\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F98FE2-2F22-4BB2-9EE7-2C7BE627C975}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E564FA57-9676-4A33-9947-F319DA80A769}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
+    <workbookView xWindow="1104" yWindow="2220" windowWidth="17472" windowHeight="8412" activeTab="1" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN Config." sheetId="2" r:id="rId1"/>
@@ -787,7 +787,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -898,7 +898,7 @@
         <v>40</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>39</v>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laghi\Documents\03_dottorato\04_F4E\01_JADE\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E564FA57-9676-4A33-9947-F319DA80A769}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B52C15-54DC-4576-913C-174DCAE6F051}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1104" yWindow="2220" windowWidth="17472" windowHeight="8412" activeTab="1" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B0A3356C-3012-4321-B248-DE86B5D58E08}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN Config." sheetId="2" r:id="rId1"/>
@@ -787,7 +787,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -869,10 +869,10 @@
         <v>40</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="12">
         <v>10000</v>
@@ -901,7 +901,7 @@
         <v>40</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5" s="12">
         <v>10000</v>
